--- a/data/trans_orig/P05A06-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>305569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>284714</v>
+        <v>286681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>325588</v>
+        <v>324564</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.698905364290651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6512053934043193</v>
+        <v>0.6557029440378371</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7446933801689649</v>
+        <v>0.7423506396045927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -764,19 +764,19 @@
         <v>224490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>206544</v>
+        <v>207264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241596</v>
+        <v>240851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7139035517929807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6568326705491196</v>
+        <v>0.6591224102483569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7683043191898867</v>
+        <v>0.7659335375399701</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>482</v>
@@ -785,19 +785,19 @@
         <v>530059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500658</v>
+        <v>504466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>554603</v>
+        <v>557926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7051797600050381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6660648814790512</v>
+        <v>0.671131718338678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7378331957784764</v>
+        <v>0.7422529840618358</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>110948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93139</v>
+        <v>92991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130180</v>
+        <v>129598</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2537637905091396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2130310058599914</v>
+        <v>0.2126921554219934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2977501435102629</v>
+        <v>0.296419229636935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -835,19 +835,19 @@
         <v>84196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67328</v>
+        <v>68560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100942</v>
+        <v>101947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2677542775156767</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2141114471717593</v>
+        <v>0.2180288998466927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3210087186727335</v>
+        <v>0.3242018164527156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -856,19 +856,19 @@
         <v>195145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170962</v>
+        <v>169952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>223354</v>
+        <v>220388</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2596166211730028</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2274439288433066</v>
+        <v>0.226100410785494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2971458473551325</v>
+        <v>0.2932003085352339</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>20694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12773</v>
+        <v>12649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32616</v>
+        <v>31602</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04733084520020949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02921580505604698</v>
+        <v>0.02893143508801141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07459937503125247</v>
+        <v>0.07228023581969503</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -906,19 +906,19 @@
         <v>5768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2772</v>
+        <v>2668</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11898</v>
+        <v>12418</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01834217069134268</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008815379447074067</v>
+        <v>0.00848306813464327</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03783810089765803</v>
+        <v>0.03949194467118388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -927,19 +927,19 @@
         <v>26461</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16641</v>
+        <v>17553</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37602</v>
+        <v>38421</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03520361882195912</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02213913195175984</v>
+        <v>0.02335261357069685</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05002477471051656</v>
+        <v>0.05111458303199877</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>307971</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>288844</v>
+        <v>288132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>326232</v>
+        <v>325318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.74459206966296</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6983462731272094</v>
+        <v>0.6966261143118748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7887405184936267</v>
+        <v>0.7865317312994121</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>212</v>
@@ -1052,19 +1052,19 @@
         <v>235277</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>216243</v>
+        <v>218409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250953</v>
+        <v>253329</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6996224098008146</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6430212971468189</v>
+        <v>0.6494634689827322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7462366541206439</v>
+        <v>0.7533014329183988</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>488</v>
@@ -1073,19 +1073,19 @@
         <v>543249</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>515599</v>
+        <v>518187</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>565942</v>
+        <v>570646</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7244255309809707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6875538884216968</v>
+        <v>0.6910047420220645</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7546872042859264</v>
+        <v>0.7609601204452172</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>97644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80364</v>
+        <v>81049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>117699</v>
+        <v>117367</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2360759999813617</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1942987544083162</v>
+        <v>0.195955638838265</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2845633383816872</v>
+        <v>0.2837620076306349</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -1123,19 +1123,19 @@
         <v>89023</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>73472</v>
+        <v>72155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>107125</v>
+        <v>105735</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2647193929103885</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2184764695230397</v>
+        <v>0.214561985084955</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3185465345482037</v>
+        <v>0.3144142298029248</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>169</v>
@@ -1144,19 +1144,19 @@
         <v>186667</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>164886</v>
+        <v>161689</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>214300</v>
+        <v>211457</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2489210624803308</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2198761013497982</v>
+        <v>0.2156135155069173</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2857708887105483</v>
+        <v>0.2819787411267234</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>7996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3945</v>
+        <v>3948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15360</v>
+        <v>15069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01933193035567825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009537500507206144</v>
+        <v>0.009544195809955974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03713620881085244</v>
+        <v>0.03643260696266898</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1194,19 +1194,19 @@
         <v>11992</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5935</v>
+        <v>6179</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21833</v>
+        <v>20615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03565819728879688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01764872225642652</v>
+        <v>0.01837435471594598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06492346114170398</v>
+        <v>0.06130091825173803</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1215,19 +1215,19 @@
         <v>19987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12411</v>
+        <v>12127</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29966</v>
+        <v>31890</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0266534065386985</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01654996848092526</v>
+        <v>0.01617110837606544</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03996042657304427</v>
+        <v>0.04252506651898618</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>427685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>407007</v>
+        <v>404899</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>453194</v>
+        <v>451171</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6868522028079346</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6536439491099676</v>
+        <v>0.650257949366622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7278192662995697</v>
+        <v>0.7245695028625206</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>178</v>
@@ -1340,19 +1340,19 @@
         <v>189827</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>173713</v>
+        <v>174357</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>203125</v>
+        <v>203860</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7325964338831423</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6704059457898771</v>
+        <v>0.6728926942082774</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7839134032087584</v>
+        <v>0.7867517427133482</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>580</v>
@@ -1361,19 +1361,19 @@
         <v>617512</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>589622</v>
+        <v>585839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>646503</v>
+        <v>644466</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7002942432264946</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6686653364774104</v>
+        <v>0.6643745155299492</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7331709454745861</v>
+        <v>0.7308605988689308</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>164257</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>141033</v>
+        <v>142296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185218</v>
+        <v>186455</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2637936841873108</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2264961006052206</v>
+        <v>0.2285247674494139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2974554389013245</v>
+        <v>0.2994428520026736</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -1411,19 +1411,19 @@
         <v>60063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46887</v>
+        <v>47321</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74902</v>
+        <v>73988</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2318001795151151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1809508480281168</v>
+        <v>0.1826262675065664</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2890667540337652</v>
+        <v>0.2855389522979681</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>211</v>
@@ -1432,19 +1432,19 @@
         <v>224321</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196541</v>
+        <v>200529</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>251528</v>
+        <v>254906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2543923242163018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.22288828812353</v>
+        <v>0.2274107704720882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2852473199504622</v>
+        <v>0.2890777390521689</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>30732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21215</v>
+        <v>21052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44338</v>
+        <v>44272</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04935411300475463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0340703351587564</v>
+        <v>0.03380921587943628</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07120647015854219</v>
+        <v>0.07110019587541541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1482,19 +1482,19 @@
         <v>9225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4096</v>
+        <v>4037</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18136</v>
+        <v>17998</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03560338660174257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01580755780791238</v>
+        <v>0.01557816607055999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06999070364065284</v>
+        <v>0.06945860233696305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -1503,19 +1503,19 @@
         <v>39957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28585</v>
+        <v>27969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55537</v>
+        <v>54483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04531343255720358</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03241683293114306</v>
+        <v>0.031718657603266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06298181575037072</v>
+        <v>0.06178685213679221</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>809767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>777094</v>
+        <v>779210</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>842009</v>
+        <v>839830</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7027619836801279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6744061858147921</v>
+        <v>0.6762423546038427</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7307430408290949</v>
+        <v>0.7288517031293087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>476</v>
@@ -1628,19 +1628,19 @@
         <v>510761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>482685</v>
+        <v>483343</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>535215</v>
+        <v>534912</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6708187584441236</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6339452065588744</v>
+        <v>0.6348091333649647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7029364228322115</v>
+        <v>0.7025381196728622</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1232</v>
@@ -1649,19 +1649,19 @@
         <v>1320529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1282222</v>
+        <v>1278776</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1360137</v>
+        <v>1364461</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6900525654840673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6700350340224988</v>
+        <v>0.6682343644999524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7107501137169506</v>
+        <v>0.7130097181652238</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>292213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>262820</v>
+        <v>262211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>326364</v>
+        <v>320207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2535991645084404</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2280898327522461</v>
+        <v>0.227561600631546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2832373778234382</v>
+        <v>0.2778940009114509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>198</v>
@@ -1699,19 +1699,19 @@
         <v>215526</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192456</v>
+        <v>191621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>241612</v>
+        <v>243575</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.283065853024862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2527660669115797</v>
+        <v>0.251670100571026</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3173264509421811</v>
+        <v>0.3199047503695204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>472</v>
@@ -1720,19 +1720,19 @@
         <v>507740</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>470048</v>
+        <v>469746</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>546154</v>
+        <v>547852</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2653232300791938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2456272923672201</v>
+        <v>0.2454695793884666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2853970346646535</v>
+        <v>0.2862844171493094</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>50283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37285</v>
+        <v>36318</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66692</v>
+        <v>67417</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04363885181143169</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03235802542642874</v>
+        <v>0.03151883540952981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05787913635327319</v>
+        <v>0.05850863498020323</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -1770,19 +1770,19 @@
         <v>35112</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24072</v>
+        <v>23690</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49282</v>
+        <v>47593</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04611538853101432</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03161601243062016</v>
+        <v>0.0311135131040467</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06472608501455794</v>
+        <v>0.06250717299124585</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>78</v>
@@ -1791,19 +1791,19 @@
         <v>85396</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>66892</v>
+        <v>68914</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>106292</v>
+        <v>106108</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04462420443673887</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03495513708996494</v>
+        <v>0.03601164895893089</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05554392722102004</v>
+        <v>0.05544768554057689</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>380430</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>359881</v>
+        <v>358460</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>401179</v>
+        <v>399131</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7478512415488654</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7074570589656942</v>
+        <v>0.7046627295606449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7886396765422619</v>
+        <v>0.7846136292410036</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>523</v>
@@ -1916,19 +1916,19 @@
         <v>568584</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>544738</v>
+        <v>543135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>592833</v>
+        <v>594018</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7516084101859493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7200855992319656</v>
+        <v>0.7179678330876238</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7836630551638238</v>
+        <v>0.7852292651348387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>887</v>
@@ -1937,19 +1937,19 @@
         <v>949014</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>917790</v>
+        <v>916007</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>982404</v>
+        <v>979290</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7500977557297076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7254181687704936</v>
+        <v>0.7240090492597778</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7764894126144245</v>
+        <v>0.7740277474531277</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>108565</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>91091</v>
+        <v>90614</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>129762</v>
+        <v>128441</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2134172893288434</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1790677922478816</v>
+        <v>0.1781288694080712</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2550870071729014</v>
+        <v>0.2524900956704744</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>154</v>
@@ -1987,19 +1987,19 @@
         <v>165769</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>143239</v>
+        <v>144439</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>189227</v>
+        <v>191172</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2191288464787894</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1893470896276126</v>
+        <v>0.1909327716322006</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2501377142206391</v>
+        <v>0.2527092410996591</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>257</v>
@@ -2008,19 +2008,19 @@
         <v>274334</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>244133</v>
+        <v>245993</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>304647</v>
+        <v>305965</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2168323860070705</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1929618632608679</v>
+        <v>0.1944325111831483</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2407919974947311</v>
+        <v>0.2418334552429148</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>19703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12387</v>
+        <v>12130</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30334</v>
+        <v>29547</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03873146912229122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02435082596341781</v>
+        <v>0.0238451838933878</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05963118553797427</v>
+        <v>0.0580836084889619</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2058,19 +2058,19 @@
         <v>22137</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14053</v>
+        <v>14537</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32990</v>
+        <v>34254</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02926274333526131</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01857668057910302</v>
+        <v>0.01921608256145372</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04360932741847959</v>
+        <v>0.04528074627825479</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2079,19 +2079,19 @@
         <v>41840</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30283</v>
+        <v>31198</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54810</v>
+        <v>56095</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03306985826322186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02393556941024429</v>
+        <v>0.02465861642211382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04332190814619314</v>
+        <v>0.04433730675027553</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>193545</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>178045</v>
+        <v>179107</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>207637</v>
+        <v>206944</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.725209078641179</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6671312267769703</v>
+        <v>0.671108896899015</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7780092654247882</v>
+        <v>0.7754120541680413</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>728</v>
@@ -2204,19 +2204,19 @@
         <v>774521</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>745486</v>
+        <v>741641</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>804095</v>
+        <v>805025</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.702945293814273</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6765930089132897</v>
+        <v>0.673103719174366</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7297857934630166</v>
+        <v>0.7306296519214244</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>919</v>
@@ -2225,19 +2225,19 @@
         <v>968067</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>934006</v>
+        <v>936007</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1000104</v>
+        <v>1003805</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7072864811409699</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6824012702482605</v>
+        <v>0.6838632793272537</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.730693449773412</v>
+        <v>0.733397478778702</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>68597</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55378</v>
+        <v>55736</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83968</v>
+        <v>83323</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2570325061554043</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2074996720025649</v>
+        <v>0.2088411902949188</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3146248193021458</v>
+        <v>0.3122109773691691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>277</v>
@@ -2275,19 +2275,19 @@
         <v>293162</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>264842</v>
+        <v>263223</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>321006</v>
+        <v>323475</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2660699129255868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.240366716208705</v>
+        <v>0.238897885497041</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2913406011063341</v>
+        <v>0.2935818813340182</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>346</v>
@@ -2296,19 +2296,19 @@
         <v>361759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>331188</v>
+        <v>327856</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>394291</v>
+        <v>394591</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2643077203764786</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.24197207966904</v>
+        <v>0.2395375756268372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2880757799934882</v>
+        <v>0.288295031327659</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>4739</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1856</v>
+        <v>1841</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10545</v>
+        <v>10427</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01775841520341665</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006955141726715831</v>
+        <v>0.006896482387796439</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03951230693007739</v>
+        <v>0.03906871949398457</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -2346,19 +2346,19 @@
         <v>34140</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24272</v>
+        <v>24203</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46565</v>
+        <v>47615</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0309847932601402</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02202914407917089</v>
+        <v>0.02196652537344989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04226200573731162</v>
+        <v>0.04321448520904298</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -2367,19 +2367,19 @@
         <v>38879</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27148</v>
+        <v>28062</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52227</v>
+        <v>54040</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02840579848255139</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01983450227114555</v>
+        <v>0.02050276737329432</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03815807477732019</v>
+        <v>0.03948250900653128</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>2424968</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2371110</v>
+        <v>2369235</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2475960</v>
+        <v>2479772</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7129450621122411</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6971106898154221</v>
+        <v>0.6965594555410854</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7279368975465494</v>
+        <v>0.7290576332124757</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2320</v>
@@ -2492,19 +2492,19 @@
         <v>2503461</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2448946</v>
+        <v>2445747</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2557396</v>
+        <v>2559305</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7092813378414133</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6938362523138533</v>
+        <v>0.6929297768427589</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7245622535042299</v>
+        <v>0.7251030887313746</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4588</v>
@@ -2513,19 +2513,19 @@
         <v>4928429</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4857130</v>
+        <v>4844072</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5012185</v>
+        <v>5001786</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7110793069304973</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7007922297876629</v>
+        <v>0.6989082118594224</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7231637832436564</v>
+        <v>0.721663371734331</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>842225</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>791231</v>
+        <v>792293</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>892648</v>
+        <v>894420</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2476156285659017</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2326232769581913</v>
+        <v>0.2329355173423698</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2624401047068551</v>
+        <v>0.2629611086176787</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>841</v>
@@ -2563,19 +2563,19 @@
         <v>907739</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>857146</v>
+        <v>856925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>963037</v>
+        <v>962471</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.257180992291757</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2428467343676277</v>
+        <v>0.2427842872542516</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2728480226177257</v>
+        <v>0.2726876570779797</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1635</v>
@@ -2584,19 +2584,19 @@
         <v>1749964</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1669557</v>
+        <v>1673952</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1819179</v>
+        <v>1836105</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.252486799433994</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.240885636259075</v>
+        <v>0.2415196846979371</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2624732739033014</v>
+        <v>0.2649153175942337</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>134146</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>111722</v>
+        <v>112076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>158257</v>
+        <v>155663</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03943930932185723</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0328464916066635</v>
+        <v>0.03295056281392328</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04652782346155784</v>
+        <v>0.04576513480059749</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>111</v>
@@ -2634,19 +2634,19 @@
         <v>118374</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>96108</v>
+        <v>99218</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>140213</v>
+        <v>142688</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0335376698668297</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02722920835968472</v>
+        <v>0.02811040111742818</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03972517813195349</v>
+        <v>0.04042634591528199</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>237</v>
@@ -2655,19 +2655,19 @@
         <v>252520</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>220974</v>
+        <v>223886</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>283434</v>
+        <v>287538</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03643389363550872</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03188239834033953</v>
+        <v>0.03230253921334578</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04089415100794971</v>
+        <v>0.04148628599865355</v>
       </c>
     </row>
     <row r="31">
@@ -3001,19 +3001,19 @@
         <v>337861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>318886</v>
+        <v>318945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353280</v>
+        <v>354263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7912717261525243</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7468328457716282</v>
+        <v>0.7469697575229621</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8273815493301692</v>
+        <v>0.8296847125418881</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>258</v>
@@ -3022,19 +3022,19 @@
         <v>268327</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>253866</v>
+        <v>250819</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>284658</v>
+        <v>283650</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7801372381243734</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7380942590678836</v>
+        <v>0.7292351317121137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8276194715415619</v>
+        <v>0.824689950372132</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>569</v>
@@ -3043,19 +3043,19 @@
         <v>606188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>582267</v>
+        <v>582014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>629000</v>
+        <v>627731</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7863041326109704</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7552762736428289</v>
+        <v>0.7549472999626308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8158947803780251</v>
+        <v>0.8142485983610203</v>
       </c>
     </row>
     <row r="5">
@@ -3072,19 +3072,19 @@
         <v>76368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61342</v>
+        <v>59288</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94722</v>
+        <v>93722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1788538303300088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1436640525168736</v>
+        <v>0.1388538129951579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2218390125569185</v>
+        <v>0.2194964149051598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -3093,19 +3093,19 @@
         <v>65815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50126</v>
+        <v>51463</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79697</v>
+        <v>81504</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1913521968434256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1457374017788396</v>
+        <v>0.1496236969387549</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2317111930933692</v>
+        <v>0.2369661223074877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -3114,19 +3114,19 @@
         <v>142183</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120032</v>
+        <v>120764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163765</v>
+        <v>164345</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.184429911117473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1556970440488695</v>
+        <v>0.1566462758282791</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2124247183076722</v>
+        <v>0.2131765951832318</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>12756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7169</v>
+        <v>7172</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21737</v>
+        <v>21961</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02987444351746691</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01679059229566623</v>
+        <v>0.01679589050742387</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05090731058655134</v>
+        <v>0.05143221509314978</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3164,19 +3164,19 @@
         <v>9806</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4777</v>
+        <v>4513</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19097</v>
+        <v>19253</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02851056503220096</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01388838897960599</v>
+        <v>0.01312111037437896</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0555242382198311</v>
+        <v>0.05597631063630183</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -3185,19 +3185,19 @@
         <v>22562</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13829</v>
+        <v>14164</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35225</v>
+        <v>34550</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02926595627155655</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01793823632905646</v>
+        <v>0.01837291575806925</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04569119713147252</v>
+        <v>0.04481596731279242</v>
       </c>
     </row>
     <row r="7">
@@ -3289,19 +3289,19 @@
         <v>285132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>269069</v>
+        <v>266476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>303278</v>
+        <v>300911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7619856035675439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7190594165476248</v>
+        <v>0.7121292201110337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8104803203237843</v>
+        <v>0.8041528616448259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>265</v>
@@ -3310,19 +3310,19 @@
         <v>279502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262501</v>
+        <v>261428</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>296258</v>
+        <v>294803</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7590835745309149</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7129102669489245</v>
+        <v>0.7099962806301284</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8045906829172335</v>
+        <v>0.8006376287059457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>534</v>
@@ -3331,19 +3331,19 @@
         <v>564634</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>540421</v>
+        <v>542583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>587952</v>
+        <v>590153</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.760546287625403</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7279324897058935</v>
+        <v>0.7308445619829439</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7919546360809095</v>
+        <v>0.7949193465721206</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>82765</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66326</v>
+        <v>66908</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98853</v>
+        <v>101188</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.221181735562691</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1772502161923424</v>
+        <v>0.1788058322891512</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2641746074172499</v>
+        <v>0.2704133040259731</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>73</v>
@@ -3381,19 +3381,19 @@
         <v>77464</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62193</v>
+        <v>63714</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93761</v>
+        <v>93750</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2103804599429387</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1689056826166999</v>
+        <v>0.1730364747189655</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2546402409928976</v>
+        <v>0.254610474669687</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>149</v>
@@ -3402,19 +3402,19 @@
         <v>160230</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>138537</v>
+        <v>137074</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>184368</v>
+        <v>182277</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2158246395451317</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.186604914475109</v>
+        <v>0.1846342252571366</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2483388589921467</v>
+        <v>0.2455213984733557</v>
       </c>
     </row>
     <row r="10">
@@ -3431,19 +3431,19 @@
         <v>6299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2801</v>
+        <v>2553</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14115</v>
+        <v>13054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01683266086976522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007484930340640699</v>
+        <v>0.006821658056739969</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03772005352455042</v>
+        <v>0.0348866949664392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3452,19 +3452,19 @@
         <v>11244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6048</v>
+        <v>5801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19616</v>
+        <v>19020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03053596552614647</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01642484116654073</v>
+        <v>0.01575422618492564</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05327431044933426</v>
+        <v>0.05165530482405305</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3473,19 +3473,19 @@
         <v>17542</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10372</v>
+        <v>10294</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27390</v>
+        <v>27884</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02362907282946531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01397043713999033</v>
+        <v>0.01386607402727422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03689351440881462</v>
+        <v>0.03755930894876609</v>
       </c>
     </row>
     <row r="11">
@@ -3577,19 +3577,19 @@
         <v>393610</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>372364</v>
+        <v>374801</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>411714</v>
+        <v>411910</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7555353672589092</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7147549607728311</v>
+        <v>0.7194312157513235</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7902874683267195</v>
+        <v>0.790662636784814</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>124</v>
@@ -3598,19 +3598,19 @@
         <v>134505</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123129</v>
+        <v>122104</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>143617</v>
+        <v>144074</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8096736705277973</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7411906212257671</v>
+        <v>0.7350238640984246</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8645218252233162</v>
+        <v>0.867276007410733</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>499</v>
@@ -3619,19 +3619,19 @@
         <v>528115</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>505047</v>
+        <v>504372</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>548716</v>
+        <v>549135</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7686247686205196</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.735051365943136</v>
+        <v>0.7340682876539679</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7986068875771202</v>
+        <v>0.7992168646751102</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>104364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87110</v>
+        <v>88303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123591</v>
+        <v>122705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2003274601889035</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1672074222442994</v>
+        <v>0.16949791789626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2372327993350658</v>
+        <v>0.2355335782557236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -3669,19 +3669,19 @@
         <v>26812</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18225</v>
+        <v>18317</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38381</v>
+        <v>38063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1613996888223705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1097055242591513</v>
+        <v>0.1102635870896814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2310383528472654</v>
+        <v>0.2291238499363366</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -3690,19 +3690,19 @@
         <v>131176</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111796</v>
+        <v>111610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>153010</v>
+        <v>153423</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1909156169510609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1627090179254085</v>
+        <v>0.1624378194348575</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2226921122198482</v>
+        <v>0.2232934928047897</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>22994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15207</v>
+        <v>14650</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34905</v>
+        <v>33589</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0441371725521873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02919027282071874</v>
+        <v>0.02811987433640909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06699974104196367</v>
+        <v>0.06447504315602241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3740,19 +3740,19 @@
         <v>4805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11953</v>
+        <v>11720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02892664064983229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006777303334239373</v>
+        <v>0.006734890525629171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07195015106949529</v>
+        <v>0.07054909697667378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -3761,19 +3761,19 @@
         <v>27799</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18384</v>
+        <v>17909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40208</v>
+        <v>39481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04045961442841949</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02675562090996549</v>
+        <v>0.02606425380221223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05851874121498136</v>
+        <v>0.05746096652937468</v>
       </c>
     </row>
     <row r="15">
@@ -3865,19 +3865,19 @@
         <v>834424</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>803410</v>
+        <v>802849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>865734</v>
+        <v>863547</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7283564073419951</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7012846802855101</v>
+        <v>0.7007951391464458</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7556867575357824</v>
+        <v>0.7537772119784341</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>609</v>
@@ -3886,19 +3886,19 @@
         <v>629409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>604533</v>
+        <v>603929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>653679</v>
+        <v>654193</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7662597814808632</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7359748576337672</v>
+        <v>0.735239489705107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7958064797055476</v>
+        <v>0.796432323785593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1409</v>
@@ -3907,19 +3907,19 @@
         <v>1463833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1423876</v>
+        <v>1422889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1501587</v>
+        <v>1500458</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7441843220691398</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.723871185443945</v>
+        <v>0.7233692089896375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7633779477608893</v>
+        <v>0.76280401973683</v>
       </c>
     </row>
     <row r="17">
@@ -3936,19 +3936,19 @@
         <v>260256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>232099</v>
+        <v>233376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>287312</v>
+        <v>289243</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2271736771350042</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2025958788368365</v>
+        <v>0.2037105504472033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2507900647278185</v>
+        <v>0.2524762039280919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -3957,19 +3957,19 @@
         <v>165185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>143341</v>
+        <v>142428</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>190123</v>
+        <v>189199</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2011009324701034</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1745075811909719</v>
+        <v>0.1733963547288488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2314609528343859</v>
+        <v>0.2303359545644323</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -3978,19 +3978,19 @@
         <v>425441</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389464</v>
+        <v>391677</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>465214</v>
+        <v>466489</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.216286066503119</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1979961522566719</v>
+        <v>0.1991211709536273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2365057578047686</v>
+        <v>0.2371538146868143</v>
       </c>
     </row>
     <row r="18">
@@ -4007,19 +4007,19 @@
         <v>50946</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37713</v>
+        <v>37232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65774</v>
+        <v>66618</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04446991552300062</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03291905875729811</v>
+        <v>0.03249935633748598</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05741337258482148</v>
+        <v>0.05814996547129517</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -4028,19 +4028,19 @@
         <v>26810</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17108</v>
+        <v>17984</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37132</v>
+        <v>37819</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03263928604903345</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02082790740242545</v>
+        <v>0.02189479282705194</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04520527803619925</v>
+        <v>0.04604130638647317</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>75</v>
@@ -4049,19 +4049,19 @@
         <v>77756</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>62336</v>
+        <v>61460</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>98183</v>
+        <v>97318</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0395296114277413</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03169040991199552</v>
+        <v>0.03124483256188215</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04991441372712895</v>
+        <v>0.04947440494047116</v>
       </c>
     </row>
     <row r="19">
@@ -4153,19 +4153,19 @@
         <v>488528</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>466480</v>
+        <v>467419</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>506540</v>
+        <v>508558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7935172532010168</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7577051328511083</v>
+        <v>0.7592299449364458</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.822773878484917</v>
+        <v>0.8260512363929485</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>520</v>
@@ -4174,19 +4174,19 @@
         <v>549472</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>524560</v>
+        <v>524888</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>572171</v>
+        <v>571486</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.751366931584185</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7173013369991886</v>
+        <v>0.7177510733422484</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7824072756925969</v>
+        <v>0.7814694955316459</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>989</v>
@@ -4195,19 +4195,19 @@
         <v>1038000</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1007330</v>
+        <v>1006263</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1071657</v>
+        <v>1068011</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7706326109745517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7478624978245105</v>
+        <v>0.7470708692066834</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7956201301524193</v>
+        <v>0.7929133179406229</v>
       </c>
     </row>
     <row r="21">
@@ -4224,19 +4224,19 @@
         <v>110359</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>92616</v>
+        <v>91154</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>130917</v>
+        <v>131003</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1792561085500783</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1504371348272883</v>
+        <v>0.1480619627055242</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2126488347134405</v>
+        <v>0.2127892304288017</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>143</v>
@@ -4245,19 +4245,19 @@
         <v>151817</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>128443</v>
+        <v>130972</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>173544</v>
+        <v>175130</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2076005431934485</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1756374187896184</v>
+        <v>0.1790957735233747</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.237310471636336</v>
+        <v>0.2394788468225933</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>249</v>
@@ -4266,19 +4266,19 @@
         <v>262176</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>231849</v>
+        <v>233809</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>291850</v>
+        <v>293509</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1946451310069301</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1721296295712525</v>
+        <v>0.1735848707764624</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2166756503073221</v>
+        <v>0.2179069121221312</v>
       </c>
     </row>
     <row r="22">
@@ -4295,19 +4295,19 @@
         <v>16762</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10118</v>
+        <v>10023</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26608</v>
+        <v>26609</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0272266382489048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01643504849806416</v>
+        <v>0.01628117894228726</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04321923704820636</v>
+        <v>0.04322058071271721</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4316,19 +4316,19 @@
         <v>30007</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21566</v>
+        <v>20343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43408</v>
+        <v>42715</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04103252522236654</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0294894493889645</v>
+        <v>0.02781804381512549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05935826637433882</v>
+        <v>0.05841015330347672</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -4337,19 +4337,19 @@
         <v>46769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34565</v>
+        <v>34472</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61583</v>
+        <v>62347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03472225801851818</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02566174674906434</v>
+        <v>0.02559285290000623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04572035794877247</v>
+        <v>0.0462877585620473</v>
       </c>
     </row>
     <row r="23">
@@ -4441,19 +4441,19 @@
         <v>229422</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>213724</v>
+        <v>213726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>240486</v>
+        <v>241648</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8062175692507019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7510533577859291</v>
+        <v>0.7510609809553972</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8450978150674292</v>
+        <v>0.8491796418993869</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>745</v>
@@ -4462,19 +4462,19 @@
         <v>806563</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>775890</v>
+        <v>774805</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>835055</v>
+        <v>835503</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7535196847716794</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7248635597543603</v>
+        <v>0.7238506175845162</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7801380259271709</v>
+        <v>0.7805565778358744</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>963</v>
@@ -4483,19 +4483,19 @@
         <v>1035985</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1004068</v>
+        <v>1003503</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1066991</v>
+        <v>1068716</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7645871914570607</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7410317388985046</v>
+        <v>0.7406144118718595</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7874707451476405</v>
+        <v>0.788743481300338</v>
       </c>
     </row>
     <row r="25">
@@ -4512,19 +4512,19 @@
         <v>47329</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36922</v>
+        <v>36344</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63146</v>
+        <v>62672</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1663190675359666</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1297487334981897</v>
+        <v>0.1277162300815017</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2219029584987512</v>
+        <v>0.2202387020575821</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>205</v>
@@ -4533,19 +4533,19 @@
         <v>227134</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>200970</v>
+        <v>202708</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>255535</v>
+        <v>259158</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2121962940243549</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1877533492568</v>
+        <v>0.1893771147440196</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2387298078864565</v>
+        <v>0.24211427673879</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>250</v>
@@ -4554,19 +4554,19 @@
         <v>274462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>245173</v>
+        <v>245973</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303613</v>
+        <v>307845</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2025612485972636</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1809444582738224</v>
+        <v>0.181535321839829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2240751868003334</v>
+        <v>0.227198597832289</v>
       </c>
     </row>
     <row r="26">
@@ -4583,19 +4583,19 @@
         <v>7815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3325</v>
+        <v>3211</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15028</v>
+        <v>14784</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02746336321333158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01168290876520068</v>
+        <v>0.01128340719018809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05281064236786527</v>
+        <v>0.05195244976853923</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -4604,19 +4604,19 @@
         <v>36697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25375</v>
+        <v>25309</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52419</v>
+        <v>50854</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03428402120396579</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02370658057001732</v>
+        <v>0.02364468231773676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04897137811038161</v>
+        <v>0.04750931497025488</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -4625,19 +4625,19 @@
         <v>44513</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32205</v>
+        <v>31885</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>60148</v>
+        <v>60758</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03285155994567576</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02376841157435102</v>
+        <v>0.0235320929468461</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04439070705073302</v>
+        <v>0.04484095259001459</v>
       </c>
     </row>
     <row r="27">
@@ -4729,19 +4729,19 @@
         <v>2568978</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2516131</v>
+        <v>2516433</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2618504</v>
+        <v>2617249</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7627627004441102</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7470717641457411</v>
+        <v>0.74716154704754</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7774674873725914</v>
+        <v>0.7770950055722323</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2521</v>
@@ -4750,19 +4750,19 @@
         <v>2667778</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2616454</v>
+        <v>2616863</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2717768</v>
+        <v>2720193</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7619228559725022</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7472646460493992</v>
+        <v>0.7473816019759669</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7762003242860096</v>
+        <v>0.7768926553951293</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4963</v>
@@ -4771,19 +4771,19 @@
         <v>5236756</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5165261</v>
+        <v>5168492</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5312206</v>
+        <v>5316512</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7623346244513257</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7519268408839584</v>
+        <v>0.7523972270614137</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7733182505202556</v>
+        <v>0.773945112330865</v>
       </c>
     </row>
     <row r="29">
@@ -4800,19 +4800,19 @@
         <v>681441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>636236</v>
+        <v>637497</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>729499</v>
+        <v>728040</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.202328707204463</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1889067726383165</v>
+        <v>0.1892811444000381</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.216597649904227</v>
+        <v>0.2161646153411621</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>667</v>
@@ -4821,19 +4821,19 @@
         <v>714228</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>664706</v>
+        <v>666208</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>765694</v>
+        <v>760604</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2039849507040555</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1898414338942517</v>
+        <v>0.1902705326216843</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2186836982450849</v>
+        <v>0.2172300988592837</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1320</v>
@@ -4842,19 +4842,19 @@
         <v>1395669</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1326186</v>
+        <v>1327057</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1461723</v>
+        <v>1458860</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2031729088445875</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1930580535823251</v>
+        <v>0.1931847439164954</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2127886028974967</v>
+        <v>0.2123717999250647</v>
       </c>
     </row>
     <row r="30">
@@ -4871,19 +4871,19 @@
         <v>117572</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>96985</v>
+        <v>97112</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>141157</v>
+        <v>140989</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03490859235142686</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02879609858832947</v>
+        <v>0.02883381882392165</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04191128483208684</v>
+        <v>0.04186140617614834</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>110</v>
@@ -4892,19 +4892,19 @@
         <v>119370</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>99753</v>
+        <v>98407</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>144418</v>
+        <v>144012</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03409219332344225</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02848964340582189</v>
+        <v>0.02810534061172349</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04124618809176578</v>
+        <v>0.04113002751753992</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>222</v>
@@ -4913,19 +4913,19 @@
         <v>236941</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>204926</v>
+        <v>208255</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>265534</v>
+        <v>270076</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03449246670408682</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02983182946300323</v>
+        <v>0.03031641327173961</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03865481263521819</v>
+        <v>0.03931595846786837</v>
       </c>
     </row>
     <row r="31">
@@ -5259,19 +5259,19 @@
         <v>454506</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>433270</v>
+        <v>433553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>473962</v>
+        <v>473412</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8273869093536369</v>
+        <v>0.8273869093536371</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7887283978843788</v>
+        <v>0.7892444684496774</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8628043365568071</v>
+        <v>0.8618039496121174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>594</v>
@@ -5280,19 +5280,19 @@
         <v>419718</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>404273</v>
+        <v>405129</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>431825</v>
+        <v>432982</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8642956767402965</v>
+        <v>0.8642956767402964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8324892140821526</v>
+        <v>0.8342531958825621</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8892251778435186</v>
+        <v>0.8916081436394786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1059</v>
@@ -5301,19 +5301,19 @@
         <v>874224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>849611</v>
+        <v>848859</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>897055</v>
+        <v>898112</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8447053063648041</v>
+        <v>0.844705306364804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8209228584522541</v>
+        <v>0.8201962222760243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8667652102639802</v>
+        <v>0.8677867516832708</v>
       </c>
     </row>
     <row r="5">
@@ -5330,19 +5330,19 @@
         <v>72656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56322</v>
+        <v>56898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90542</v>
+        <v>89460</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1322644368577081</v>
+        <v>0.1322644368577082</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1025289729141741</v>
+        <v>0.1035783519257575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1648232368876264</v>
+        <v>0.1628533871354691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -5351,19 +5351,19 @@
         <v>54423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43152</v>
+        <v>42607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68154</v>
+        <v>68819</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.112069346336319</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08885981751582002</v>
+        <v>0.0877370732552956</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1403443399996488</v>
+        <v>0.1417130261955241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>144</v>
@@ -5372,19 +5372,19 @@
         <v>127079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108096</v>
+        <v>106846</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>149912</v>
+        <v>150972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1227884608203104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1044461888469461</v>
+        <v>0.1032384119344397</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1448504770370187</v>
+        <v>0.1458740075389615</v>
       </c>
     </row>
     <row r="6">
@@ -5401,19 +5401,19 @@
         <v>22165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11264</v>
+        <v>12174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37890</v>
+        <v>39084</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04034865378865482</v>
+        <v>0.04034865378865483</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02050569185826546</v>
+        <v>0.02216220880545514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06897525012742775</v>
+        <v>0.07114883050853972</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -5422,19 +5422,19 @@
         <v>11478</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7191</v>
+        <v>6824</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18770</v>
+        <v>17869</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02363497692338457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0148079867402483</v>
+        <v>0.01405149295505704</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03865141887778385</v>
+        <v>0.0367955608990243</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -5443,19 +5443,19 @@
         <v>33642</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22350</v>
+        <v>21892</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50052</v>
+        <v>48620</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03250623281488562</v>
+        <v>0.03250623281488561</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02159516792940532</v>
+        <v>0.02115276810983275</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04836170520263874</v>
+        <v>0.04697871008875715</v>
       </c>
     </row>
     <row r="7">
@@ -5547,19 +5547,19 @@
         <v>416815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>399664</v>
+        <v>400917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>431468</v>
+        <v>432239</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8647048664551239</v>
+        <v>0.8647048664551237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8291241598665579</v>
+        <v>0.8317249723945318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8951046538245642</v>
+        <v>0.8967035115438791</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>488</v>
@@ -5568,19 +5568,19 @@
         <v>346103</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330341</v>
+        <v>331612</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359888</v>
+        <v>359631</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8193585005650326</v>
+        <v>0.8193585005650323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7820452973936196</v>
+        <v>0.7850540068930678</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8519936168652902</v>
+        <v>0.8513857336365461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>904</v>
@@ -5589,19 +5589,19 @@
         <v>762917</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>742695</v>
+        <v>739382</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>785267</v>
+        <v>782501</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8435264045175874</v>
+        <v>0.8435264045175871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8211670255303868</v>
+        <v>0.8175045039840459</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8682375604390724</v>
+        <v>0.8651790760677975</v>
       </c>
     </row>
     <row r="9">
@@ -5618,19 +5618,19 @@
         <v>53506</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40395</v>
+        <v>38878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>69133</v>
+        <v>67551</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1110015397483393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08380261526497831</v>
+        <v>0.08065411946148524</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1434195354088064</v>
+        <v>0.1401383460455844</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>82</v>
@@ -5639,19 +5639,19 @@
         <v>61896</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50115</v>
+        <v>49314</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76766</v>
+        <v>75303</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1465310905403378</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.118641032498719</v>
+        <v>0.1167452768624396</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1817335944918546</v>
+        <v>0.1782714956190147</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>135</v>
@@ -5660,19 +5660,19 @@
         <v>115402</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>95121</v>
+        <v>96978</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>134450</v>
+        <v>136645</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1275951790474597</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1051718859905456</v>
+        <v>0.1072242336883602</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1486557113397274</v>
+        <v>0.1510828652818557</v>
       </c>
     </row>
     <row r="10">
@@ -5689,19 +5689,19 @@
         <v>11710</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5940</v>
+        <v>5975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20154</v>
+        <v>22117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02429359379653689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01232290840865066</v>
+        <v>0.01239546183914979</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04180993350789051</v>
+        <v>0.04588344827485327</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -5710,19 +5710,19 @@
         <v>14408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8283</v>
+        <v>8607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22279</v>
+        <v>21994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03411040889462973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01960793383780733</v>
+        <v>0.02037537453150171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05274311714584469</v>
+        <v>0.05206788896411133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -5731,19 +5731,19 @@
         <v>26119</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17770</v>
+        <v>17125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37740</v>
+        <v>37662</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02887841643495304</v>
+        <v>0.02887841643495305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01964807899251326</v>
+        <v>0.01893491733325696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04172704830415028</v>
+        <v>0.04164100263480881</v>
       </c>
     </row>
     <row r="11">
@@ -5835,19 +5835,19 @@
         <v>387223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>369273</v>
+        <v>370744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>402754</v>
+        <v>406432</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.821061661421631</v>
+        <v>0.8210616614216308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7830019455158483</v>
+        <v>0.786119752667203</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.853993947452157</v>
+        <v>0.8617929196969447</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -5856,19 +5856,19 @@
         <v>156988</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>147562</v>
+        <v>147573</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165229</v>
+        <v>164339</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8402109429229374</v>
+        <v>0.8402109429229373</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7897653680038268</v>
+        <v>0.7898251570241288</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8843181152677092</v>
+        <v>0.8795579596761396</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>650</v>
@@ -5877,19 +5877,19 @@
         <v>544210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>525278</v>
+        <v>523571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>562209</v>
+        <v>561330</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.826495469743103</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7977436661820622</v>
+        <v>0.795150437688068</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8538310260280315</v>
+        <v>0.8524962286836278</v>
       </c>
     </row>
     <row r="13">
@@ -5906,19 +5906,19 @@
         <v>62189</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48072</v>
+        <v>47221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79398</v>
+        <v>78723</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1318640925018676</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1019303674917577</v>
+        <v>0.1001268581039784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1683539862116687</v>
+        <v>0.1669237057819225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -5927,19 +5927,19 @@
         <v>24647</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17624</v>
+        <v>17706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33622</v>
+        <v>33676</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1319150956670386</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0943273650259522</v>
+        <v>0.09476661189989607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1799471717016267</v>
+        <v>0.1802360494836504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -5948,19 +5948,19 @@
         <v>86836</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71517</v>
+        <v>70095</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104912</v>
+        <v>104996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1318785651818639</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1086139168810699</v>
+        <v>0.1064534209821209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1593302842426683</v>
+        <v>0.159458687507805</v>
       </c>
     </row>
     <row r="14">
@@ -5977,19 +5977,19 @@
         <v>22201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14442</v>
+        <v>13974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33962</v>
+        <v>32607</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04707424607650144</v>
+        <v>0.04707424607650143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03062335103430121</v>
+        <v>0.02963108450165338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0720128644706403</v>
+        <v>0.06913864507414619</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -5998,19 +5998,19 @@
         <v>5208</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1973</v>
+        <v>2542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12127</v>
+        <v>12149</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02787396141002398</v>
+        <v>0.02787396141002397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01055995465756241</v>
+        <v>0.01360394650434377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0649025946791138</v>
+        <v>0.06502089472095759</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -6019,19 +6019,19 @@
         <v>27409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17978</v>
+        <v>18565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39844</v>
+        <v>39251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04162596507503305</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0273026709848781</v>
+        <v>0.02819551443901736</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06051146533600118</v>
+        <v>0.05961116903021748</v>
       </c>
     </row>
     <row r="15">
@@ -6123,19 +6123,19 @@
         <v>938706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>908576</v>
+        <v>906908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>963962</v>
+        <v>963506</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8336335220501628</v>
+        <v>0.8336335220501629</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8068762730427825</v>
+        <v>0.8053948515331131</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8560625492703782</v>
+        <v>0.8556579811860948</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1019</v>
@@ -6144,19 +6144,19 @@
         <v>701716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>680834</v>
+        <v>679471</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>723068</v>
+        <v>721477</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.81680881132606</v>
+        <v>0.8168088113260599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7925015267384246</v>
+        <v>0.7909152212156563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8416625376642868</v>
+        <v>0.839810595928824</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1958</v>
@@ -6165,19 +6165,19 @@
         <v>1640422</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1604292</v>
+        <v>1600752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1674258</v>
+        <v>1669591</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8263523972056407</v>
+        <v>0.8263523972056409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8081523826405791</v>
+        <v>0.8063691742602175</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8433973623251197</v>
+        <v>0.8410463226862577</v>
       </c>
     </row>
     <row r="17">
@@ -6194,19 +6194,19 @@
         <v>135033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>113135</v>
+        <v>113045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158415</v>
+        <v>162161</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1199180047430619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1004712541873882</v>
+        <v>0.1003915309041265</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1406827711281484</v>
+        <v>0.1440102686468141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -6215,19 +6215,19 @@
         <v>121695</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104130</v>
+        <v>104708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141905</v>
+        <v>142404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1416543899726048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1212088284470621</v>
+        <v>0.1218819004556333</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1651793050963866</v>
+        <v>0.1657608517420106</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>286</v>
@@ -6236,19 +6236,19 @@
         <v>256727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>226599</v>
+        <v>230590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>287005</v>
+        <v>289717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1293247242474989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1141480951795799</v>
+        <v>0.1161584997581366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1445768079848044</v>
+        <v>0.145943090097563</v>
       </c>
     </row>
     <row r="18">
@@ -6265,19 +6265,19 @@
         <v>52303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37840</v>
+        <v>39197</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70923</v>
+        <v>71853</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04644847320677511</v>
+        <v>0.04644847320677512</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03360454382378678</v>
+        <v>0.0348092931066765</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06298426739525465</v>
+        <v>0.06380988440808098</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -6286,19 +6286,19 @@
         <v>35684</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26788</v>
+        <v>26623</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47549</v>
+        <v>46765</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04153679870133521</v>
+        <v>0.0415367987013352</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03118116872877517</v>
+        <v>0.03098986872308955</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05534774655257182</v>
+        <v>0.05443520253855438</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>95</v>
@@ -6307,19 +6307,19 @@
         <v>87987</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71152</v>
+        <v>70371</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>107965</v>
+        <v>107918</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04432287854686032</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03584216567847402</v>
+        <v>0.03544888503174143</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05438687446871809</v>
+        <v>0.05436292395286905</v>
       </c>
     </row>
     <row r="19">
@@ -6411,19 +6411,19 @@
         <v>466064</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>446225</v>
+        <v>447245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>484036</v>
+        <v>484664</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8238648048848414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7887948699622749</v>
+        <v>0.7905978214977586</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8556338112380886</v>
+        <v>0.856743705941531</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1043</v>
@@ -6432,19 +6432,19 @@
         <v>653631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>633411</v>
+        <v>633984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>674370</v>
+        <v>673530</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7891891428538858</v>
+        <v>0.7891891428538856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7647762436045682</v>
+        <v>0.7654673056962212</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8142298637732402</v>
+        <v>0.8132151108586004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1489</v>
@@ -6453,19 +6453,19 @@
         <v>1119695</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1090828</v>
+        <v>1090232</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1144567</v>
+        <v>1147230</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.803261660635199</v>
+        <v>0.8032616606351987</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7825529812251201</v>
+        <v>0.7821256628904855</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8211049618239917</v>
+        <v>0.8230157695505584</v>
       </c>
     </row>
     <row r="21">
@@ -6482,19 +6482,19 @@
         <v>69950</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54432</v>
+        <v>55068</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>87526</v>
+        <v>87370</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.123651479712967</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09621973534954134</v>
+        <v>0.09734436314732411</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1547196502344293</v>
+        <v>0.1544446986428448</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>167</v>
@@ -6503,19 +6503,19 @@
         <v>114163</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>97542</v>
+        <v>97631</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>132798</v>
+        <v>130160</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1378397341648988</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1177718459095183</v>
+        <v>0.1178794059553142</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1603387863202481</v>
+        <v>0.157153830245069</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>235</v>
@@ -6524,19 +6524,19 @@
         <v>184113</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>161699</v>
+        <v>163089</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>209679</v>
+        <v>207779</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1320816764562281</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1160015308493254</v>
+        <v>0.1169986898348647</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1504224952427861</v>
+        <v>0.1490595519319544</v>
       </c>
     </row>
     <row r="22">
@@ -6553,19 +6553,19 @@
         <v>29690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20562</v>
+        <v>21187</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42496</v>
+        <v>42091</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05248371540219163</v>
+        <v>0.05248371540219161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03634727518721747</v>
+        <v>0.03745225029159259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07512038982152065</v>
+        <v>0.07440396424635096</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -6574,19 +6574,19 @@
         <v>60437</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46365</v>
+        <v>47480</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75028</v>
+        <v>76332</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07297112298121551</v>
+        <v>0.0729711229812155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05598125084935225</v>
+        <v>0.05732737847689871</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09058844382485691</v>
+        <v>0.09216301886688047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -6595,19 +6595,19 @@
         <v>90127</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74645</v>
+        <v>73648</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>108629</v>
+        <v>110034</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06465666290857315</v>
+        <v>0.06465666290857314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05355013325212082</v>
+        <v>0.05283454236482893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07792988140317574</v>
+        <v>0.07893802380749491</v>
       </c>
     </row>
     <row r="23">
@@ -6699,19 +6699,19 @@
         <v>188978</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>165526</v>
+        <v>168592</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>205006</v>
+        <v>205717</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8003129956195264</v>
+        <v>0.8003129956195263</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7009934617087413</v>
+        <v>0.7139795004961152</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8681903140806364</v>
+        <v>0.8712011510925176</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>967</v>
@@ -6720,19 +6720,19 @@
         <v>694545</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>670671</v>
+        <v>669655</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>715585</v>
+        <v>715399</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.82492618019223</v>
+        <v>0.8249261801922302</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7965704116892014</v>
+        <v>0.7953643967233637</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8499163619979224</v>
+        <v>0.8496948251238401</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1057</v>
@@ -6741,19 +6741,19 @@
         <v>883523</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>850141</v>
+        <v>849249</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>910593</v>
+        <v>911867</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8195351897166934</v>
+        <v>0.8195351897166931</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7885710842039976</v>
+        <v>0.7877432268319087</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8446452379913081</v>
+        <v>0.8458269690210494</v>
       </c>
     </row>
     <row r="25">
@@ -6770,19 +6770,19 @@
         <v>31635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17941</v>
+        <v>17032</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52081</v>
+        <v>51974</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.133974906298109</v>
+        <v>0.1339749062981091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07597954165688686</v>
+        <v>0.07212816324212649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2205621201605924</v>
+        <v>0.220107737094268</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>150</v>
@@ -6791,19 +6791,19 @@
         <v>111997</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>94375</v>
+        <v>94052</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133596</v>
+        <v>132987</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1330211620293429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1120917179594216</v>
+        <v>0.1117081052469879</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1586746596266715</v>
+        <v>0.1579509834585703</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>164</v>
@@ -6812,19 +6812,19 @@
         <v>143632</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>122002</v>
+        <v>120486</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>174724</v>
+        <v>173054</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1332300592670745</v>
+        <v>0.1332300592670744</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1131666222067015</v>
+        <v>0.1117599627824822</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1620695417272986</v>
+        <v>0.1605211250200396</v>
       </c>
     </row>
     <row r="26">
@@ -6841,19 +6841,19 @@
         <v>15517</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6823</v>
+        <v>6550</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33121</v>
+        <v>30835</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06571209808236469</v>
+        <v>0.06571209808236471</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0288965678651309</v>
+        <v>0.02774071523551455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1402650986853327</v>
+        <v>0.1305834182252036</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -6862,19 +6862,19 @@
         <v>35406</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24468</v>
+        <v>23697</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50316</v>
+        <v>49572</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04205265777842709</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02906088344393483</v>
+        <v>0.02814489886667793</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05976153871083665</v>
+        <v>0.05887802616119962</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -6883,19 +6883,19 @@
         <v>50923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35346</v>
+        <v>37259</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>71382</v>
+        <v>73008</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.04723475101623214</v>
+        <v>0.04723475101623213</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03278644669801676</v>
+        <v>0.03456024609194154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06621193007130662</v>
+        <v>0.06772088005219126</v>
       </c>
     </row>
     <row r="27">
@@ -6987,19 +6987,19 @@
         <v>2852290</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2800426</v>
+        <v>2801472</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2896915</v>
+        <v>2897686</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8313666514986489</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8162497732881169</v>
+        <v>0.8165543983780688</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8443735541472646</v>
+        <v>0.8445983384110587</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4356</v>
@@ -7008,19 +7008,19 @@
         <v>2972701</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2929028</v>
+        <v>2924859</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3015951</v>
+        <v>3018029</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8202493532053342</v>
+        <v>0.8202493532053341</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8081986714338619</v>
+        <v>0.8070484100266295</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8321832288099578</v>
+        <v>0.8327567059122891</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7117</v>
@@ -7029,19 +7029,19 @@
         <v>5824991</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5757062</v>
+        <v>5759458</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5885414</v>
+        <v>5884091</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8256557023331408</v>
+        <v>0.8256557023331409</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.816027141901094</v>
+        <v>0.8163667393819511</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8342202498535137</v>
+        <v>0.8340327678797044</v>
       </c>
     </row>
     <row r="29">
@@ -7058,19 +7058,19 @@
         <v>424970</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>382798</v>
+        <v>383567</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>468034</v>
+        <v>469956</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1238673002738803</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1115754633311438</v>
+        <v>0.1117996950225092</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1364194071000463</v>
+        <v>0.1369796404228817</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>668</v>
@@ -7079,19 +7079,19 @@
         <v>488821</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>449223</v>
+        <v>451385</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>522872</v>
+        <v>527550</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1348789997136355</v>
+        <v>0.1348789997136354</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.12395284912107</v>
+        <v>0.1245495430511333</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1442746271556201</v>
+        <v>0.1455653590654271</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1062</v>
@@ -7100,19 +7100,19 @@
         <v>913790</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>858615</v>
+        <v>863024</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>970859</v>
+        <v>972768</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1295240033744987</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1217032999055318</v>
+        <v>0.1223282695335954</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1376131728809203</v>
+        <v>0.1378837381435869</v>
       </c>
     </row>
     <row r="30">
@@ -7129,19 +7129,19 @@
         <v>153585</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>125861</v>
+        <v>127770</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>184237</v>
+        <v>184860</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04476604822747089</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03668524787410591</v>
+        <v>0.03724142875701014</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05370021303559126</v>
+        <v>0.0538816719311993</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>203</v>
@@ -7150,19 +7150,19 @@
         <v>162621</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>138427</v>
+        <v>141616</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>189015</v>
+        <v>189592</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04487164708103032</v>
+        <v>0.0448716470810303</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03819582498688006</v>
+        <v>0.03907563299262524</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05215426471369774</v>
+        <v>0.05231349050775255</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>336</v>
@@ -7171,19 +7171,19 @@
         <v>316207</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>282646</v>
+        <v>281981</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>355255</v>
+        <v>359406</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04482029429236026</v>
+        <v>0.04482029429236027</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04006321897722979</v>
+        <v>0.03996900531797667</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05035518308327949</v>
+        <v>0.05094348158442218</v>
       </c>
     </row>
     <row r="31">
